--- a/【StockLead】画面遷移図(2月29日更新).xlsx
+++ b/【StockLead】画面遷移図(2月29日更新).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uya19951018/Desktop/geekation_php_own-main/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF0AF6D-791B-924C-AB45-2020F6D965B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E6C8A5-87EF-1A48-8146-238607F2548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="19840" xr2:uid="{3CEF3A5B-37E5-0048-ADA3-41668CCD7DE4}"/>
   </bookViews>
@@ -291,8 +291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3844190" y="4127500"/>
-          <a:ext cx="1775069" cy="406400"/>
+          <a:off x="3821741" y="4127500"/>
+          <a:ext cx="1762598" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,13 +677,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598199</xdr:colOff>
+      <xdr:colOff>652239</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>458498</xdr:colOff>
+      <xdr:colOff>512538</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
@@ -700,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6713737" y="4127500"/>
-          <a:ext cx="1775069" cy="406400"/>
+          <a:off x="6726622" y="4127500"/>
+          <a:ext cx="1762597" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2492,7 +2492,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>598199</xdr:colOff>
+      <xdr:colOff>652239</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2512,8 +2512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619259" y="4330700"/>
-          <a:ext cx="1094478" cy="0"/>
+          <a:off x="5584339" y="4330700"/>
+          <a:ext cx="1142283" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2542,7 +2542,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>458498</xdr:colOff>
+      <xdr:colOff>512538</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -2568,8 +2568,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8488806" y="4330700"/>
-          <a:ext cx="1374092" cy="1411"/>
+          <a:off x="8489219" y="4330700"/>
+          <a:ext cx="1313817" cy="1411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5711,15 +5711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390769</xdr:colOff>
+      <xdr:colOff>475571</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>58614</xdr:rowOff>
+      <xdr:rowOff>15382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>564012</xdr:colOff>
+      <xdr:colOff>618051</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219369</xdr:rowOff>
+      <xdr:rowOff>210768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5734,8 +5734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5548923" y="4122614"/>
-          <a:ext cx="1130627" cy="160755"/>
+          <a:off x="5598805" y="4079382"/>
+          <a:ext cx="1093629" cy="195386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8470,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF74BEC-B334-534C-9419-3DBAA5AF2FB7}">
   <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
